--- a/examples/UK OGD/supporting_staff/profile.xlsx
+++ b/examples/UK OGD/supporting_staff/profile.xlsx
@@ -450,15 +450,25 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>most_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -475,38 +485,38 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E2" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>319620708</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1544061.391304348</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>178009</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>13872124.95127858</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>192435850663885.9</v>
       </c>
       <c r="K2" t="n">
-        <v>-1</v>
+        <v>5654</v>
       </c>
       <c r="L2" t="n">
-        <v>-1</v>
+        <v>200000057</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
         <v>16</v>
@@ -527,18 +537,24 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>184000</t>
+          <t>00142856/1561030</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1347</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>210</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>['0', '00142856/1561030', '100916', '100919', '104016', '104017', '104018', '104025', '1047423', '1047441', '1047464', '1047472', '1047497', '1047516', '105227', '105230', '105234', '105236', '105238', '105349', '105357', '105515', '105516', '105517', '1055224', '1055232', '1055683', '1055688', '1055692', '1055711', '1055716', '1055721', '1055731', '1056156', '1056162', '1056166', '1056170', '1056195', '1056200', '1056713', '1057629', '1058158', '1058711', '1058715', '1058719', '1058725', '106000', '106008', '106013', '106027', '106029', '106032', '106043', '106044', '106181', '1062827', '1062831', '1062997', '1063002', '1063006', '1063009', '1063013', '106696', '106838', '107359', '107419', '107421', '107429', '108528', '108754', '109484', '109679', '109715', '109782', '109838', '110351', '1105780', '1105905', '1105937', '110655', '1106793', '1107045', '110710', '111565', '1117089', '111789', '111791', '111792', '111794', '111797', '111800', '111801', '111803', '111804', '111813', '1118144', '1119895', '1121412', '112611', '1128035', '1128589', '1131246', '113908', '1143483', '114597', '116270', '1166821', '1239190', '1239811', '1240790', '1241543', '1242123', '125818', '1267296', '135042', '135736', '135903', '136404', '1364692', '137261', '137262', '137265', '137266', '137389', '137401', '139073', '139074', '139083', '139084', '139085', '139086', '139151', '140333', '141691', '142008', '142073', '142227', '142662', '1431838', '1432988', '143581', '144805', '144814', '144816', '1448387', '1448407', '1479775', '148649', '149898', '1499032', '1507723', '153528', '1541774', '154898', '154906', '1550008', '155792', '1564419', '1565824', '1567623', '1568418', '1570344', '1573670', '1584913', '1586951', '1591691', '1596254', '1596309', '1596460', '1597768', '1597976', '1598066', '1598310', '160074', '16039', '1605824', '1613296', '163901', '164078', '167105', '169882', '170603', '174902', '175364', '176079', '178009', '178447', '178681', '179598', '179774', '180361', '182746', '183178', '184000', '184002', '184198', '184546', '184936', '185281', '188553', '189101', '189654', '191185', '191191', '191217', '200000057', '25463', '5654', '70503', '???????']</t>
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1346</v>
+      </c>
+      <c r="W2" t="n">
+        <v>209</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>['00142856/1561030', '100916', '100919', '104016', '104017', '104018', '104025', '1047423', '1047441', '1047464', '1047472', '1047497', '1047516', '105227', '105230', '105234', '105236', '105238', '105349', '105357', '105515', '105516', '105517', '1055224', '1055232', '1055683', '1055688', '1055692', '1055711', '1055716', '1055721', '1055731', '1056156', '1056162', '1056166', '1056170', '1056195', '1056200', '1056713', '1057629', '1058158', '1058711', '1058715', '1058719', '1058725', '106000', '106008', '106013', '106027', '106029', '106032', '106043', '106044', '106181', '1062827', '1062831', '1062997', '1063002', '1063006', '1063009', '1063013', '106696', '106838', '107359', '107419', '107421', '107429', '108528', '108754', '109484', '109679', '109715', '109782', '109838', '110351', '1105780', '1105905', '1105937', '110655', '1106793', '1107045', '110710', '111565', '1117089', '111789', '111791', '111792', '111794', '111797', '111800', '111801', '111803', '111804', '111813', '1118144', '1119895', '1121412', '112611', '1128035', '1128589', '1131246', '113908', '1143483', '114597', '116270', '1166821', '1239190', '1239811', '1240790', '1241543', '1242123', '125818', '1267296', '135042', '135736', '135903', '136404', '1364692', '137261', '137262', '137265', '137266', '137389', '137401', '139073', '139074', '139083', '139084', '139085', '139086', '139151', '140333', '141691', '142008', '142073', '142227', '142662', '1431838', '1432988', '143581', '144805', '144814', '144816', '1448387', '1448407', '1479775', '148649', '149898', '1499032', '1507723', '153528', '1541774', '154898', '154906', '1550008', '155792', '1564419', '1565824', '1567623', '1568418', '1570344', '1573670', '1584913', '1586951', '1591691', '1596254', '1596309', '1596460', '1597768', '1597976', '1598066', '1598310', '160074', '16039', '1605824', '1613296', '163901', '164078', '167105', '169882', '170603', '174902', '175364', '176079', '178009', '178447', '178681', '179598', '179774', '180361', '182746', '183178', '184000', '184002', '184198', '184546', '184936', '185281', '188553', '189101', '189654', '191185', '191191', '191217', '200000057', '25463', '5654', '70503', '???????']</t>
         </is>
       </c>
     </row>
@@ -557,10 +573,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E3" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -605,14 +621,20 @@
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>865</v>
+        <v>148</v>
       </c>
       <c r="U3" t="n">
-        <v>62</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>['148', 'AM C M Nickols', 'AM T Anderson', 'AVM B Bates', 'AVM C Ness', 'AVM P EVANS', 'AVM R Lock', 'Al Rymer', 'Amjad Hussain', 'Bill Moore', 'Bruce Houlder QC', 'CAROLE TOLLEY', 'DOMINIC WILSON', 'David Capewell', 'David Murray', 'Evans, Jonathan', 'F C Nash', 'Gavin Barlow', 'Gen Nicholas Houghton', 'Greg Smith', 'Hutchinson, Mark', 'JOHN PITT-BROOKE', 'JONATHAN THOMPSON', 'Jarvis, Jeremy Charles', 'John Taylor', 'Jon Day', 'Jonathan Shaw', 'Kathy Barnes', 'Love, Stephen', 'Lt Gen AJN Graham', 'M Greatwich', 'Maj Gen RAM Melvin', 'Maj Gen S ANDREWS', 'Maj-Gen J Thomas', 'Mantell, Carl Nicholas', 'Mark Welland', 'Michael Harwood', 'Mr A Manley', 'Mr J P Colston', 'Mr N B Gurr', 'Mrs Susanna Mason', 'PAUL COLLEY', 'Paul Lambert', 'Peter Ryan', 'Peter Sankey', 'Preston, Mark', 'Prof Philip Sutton', 'R ADM S Williams', 'R Adm S Charlier', 'Scholefield, Susan', 'Simon Mayall', 'Sir Bill Jeffrey', 'Sir Jock Stirrup', 'Sir William Rollo', 'Stephens,David James Edwin', 'Steve Hillier', 'Style, Charles Rodney', 'Surg R Adm L  JARVIS', 'Surg V Adm P RAFFAELLI', 'TOM MCKANE', 'Ursula Brennan', 'VACANT']</t>
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>862</v>
+      </c>
+      <c r="W3" t="n">
+        <v>61</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>['AM C M Nickols', 'AM T Anderson', 'AVM B Bates', 'AVM C Ness', 'AVM P EVANS', 'AVM R Lock', 'Al Rymer', 'Amjad Hussain', 'Bill Moore', 'Bruce Houlder QC', 'CAROLE TOLLEY', 'DOMINIC WILSON', 'David Capewell', 'David Murray', 'Evans, Jonathan', 'F C Nash', 'Gavin Barlow', 'Gen Nicholas Houghton', 'Greg Smith', 'Hutchinson, Mark', 'JOHN PITT-BROOKE', 'JONATHAN THOMPSON', 'Jarvis, Jeremy Charles', 'John Taylor', 'Jon Day', 'Jonathan Shaw', 'Kathy Barnes', 'Love, Stephen', 'Lt Gen AJN Graham', 'M Greatwich', 'Maj Gen RAM Melvin', 'Maj Gen S ANDREWS', 'Maj-Gen J Thomas', 'Mantell, Carl Nicholas', 'Mark Welland', 'Michael Harwood', 'Mr A Manley', 'Mr J P Colston', 'Mr N B Gurr', 'Mrs Susanna Mason', 'PAUL COLLEY', 'Paul Lambert', 'Peter Ryan', 'Peter Sankey', 'Preston, Mark', 'Prof Philip Sutton', 'R ADM S Williams', 'R Adm S Charlier', 'Scholefield, Susan', 'Simon Mayall', 'Sir Bill Jeffrey', 'Sir Jock Stirrup', 'Sir William Rollo', 'Stephens,David James Edwin', 'Steve Hillier', 'Style, Charles Rodney', 'Surg R Adm L  JARVIS', 'Surg V Adm P RAFFAELLI', 'TOM MCKANE', 'Ursula Brennan', 'VACANT']</t>
         </is>
       </c>
     </row>
@@ -631,10 +653,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E4" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -658,7 +680,7 @@
         <v>-1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
         <v>20</v>
@@ -667,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -683,12 +705,18 @@
         </is>
       </c>
       <c r="T4" t="n">
+        <v>77</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>768</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>10</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>['OF6', 'OF7', 'OF8', 'OF9', 'SCS 1 (Acting SCS 2)', 'SCS1', 'SCS1/Air Cdre', 'SCS2', 'SCS3', 'SCS4']</t>
         </is>
@@ -709,10 +737,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -736,7 +764,7 @@
         <v>-1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N5" t="n">
         <v>93</v>
@@ -745,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -761,12 +789,18 @@
         </is>
       </c>
       <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>7820</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>208</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>['2nd Permanent Undersecretary', 'ASSISTANCE CHIEF OF DEFENCE STAFF (DEVELOPMENT, CONCEPTS AND DOCTRINE)', 'ASSISTANCE CHIEF OF DEFENCE STAFF (STRATEGY AND PLANS)', 'Agency Secretary MDPGA', 'Air Attach?', 'Assistant Chief Defence Staff (Personnel) / Defence Services Secretary', 'Assistant Chief Defence Staff Reserves &amp; Cadets', 'Assistant Chief of Defence Staff International Security Policy', 'Assistant Chief of Defence Staff Operations', 'Assistant Chief of the Defence Staff (Intelligence Capability)', 'Attorney General &amp; Legal Advisor Cyprus', 'CIO-Corporate Information-Head', 'CIO-Information Strategy&amp;Policy-Head', 'CIO-Joint 6 Information Strategy&amp;Policy', 'CTLB Director', 'CTLB Fin-Hd', 'CTLB SSBC-Hd', 'Chief Constable MoD Police &amp; Guarding Agency', 'Chief Executive Defence Vetting Agency', 'Chief Executive People, Pay &amp; Pensions Agency', 'Chief Executive Service Personnel &amp; Veterans Agency', 'Chief Information Officer (CIO)', 'Chief Scientific Advisor', 'Chief of Defence Intelligence', 'Chief of the Defence Staff', 'Commandant - Defence Dental Service', 'Commandant of the Defence Intelligence and Security Centre', 'Commander - Joint Medical Command', 'Commander Intelligence Collection Group', 'Counsellor Defence Acquisition and Technology', 'Counsellor Defence Policy and Nuclear', 'DBR-Head of Common Law Claims &amp; Policy', 'DBR-Head of Defence Security &amp; Assurance Services', 'DBR-Head of Defence Security Policy', 'DBR-Head of Safety, Sustainable Development &amp; Continuity Policy', 'DCP-Head of Corporate Capability', 'DCP-Head of Employment Framework', 'DEFAC-CMT-AB-HEAD', 'DEFAC-CMT-HQ DIRECTOR', 'DEFAC-CMT-LMD HEAD', 'DEFAC-CMT-ND HEAD', 'DEFAC-CMT-TD HEAD', 'DEFAC-HQ-DIRECTOR GENERAL', 'DEFAC-JSCSC ARMY DIV DIR', 'DEFAC-JSCSC HQ ACOMDT AIR', 'DEFAC-JSCSC HQ ACOMDT LAND', 'DEFAC-JSCSC HQ ACOMDT MAR', 'DEFAC-JSCSC HQ COMDT', 'DEFAC-RCDS-COMMANDANT', 'DEFAC-RCDS-SDS 1', 'DEFAC-RCDS-SDS 2', 'DEFAC-RCDS-SDS 3', 'DEFAC-RCDS-SDS 4', 'DIRECTOR (STRATEGY AND RESOURCES)', 'DIRECTOR ANALYTICAL SERVICES AND  ADVICE', 'DIRECTOR CIVILIAN WORKFORCE REVIEW', 'DIRECTOR FINANCIAL MANAGEMENT', 'DIRECTOR GENERAL FINANCE', 'DIRECTOR GENERAL STRATEGY', 'DIRECTOR PLANS', 'DIRECTOR SCRUTINY', 'DOC-Head', 'Dean - Defence Postgratuate Medical Deanery', 'Defence Medical Group Commandant', "Defence Science &amp; Technology Chief Scientific Adviser's Strategic Adviser", 'Defence Science &amp; Technology Strategic Technologies Director', 'Defence Science &amp; Technology Strategic Technologies Head', 'Defence Science &amp; Technology Strategy Director', 'Defence Training Rationalisation  IPT Leader', 'Deputy Chief Constable MDPGA', 'Deputy Chief Defence Staff (Personnel &amp; Training)', 'Deputy Chief of Defence Intelligence', 'Deputy Chief of Defence Staff (Capability)', 'Deputy Chief of Defence Staff (Operations)', 'Deputy Director Combined Joint Operations from the Sea Centre of Excellence', 'Deputy Director Service Prosecutions', 'Director (Battlespace Manoeuvre)', 'Director (Equipment Resources)', 'Director (Information Superiority)', 'Director (Precision Attack)', 'Director Business Resilience (DBR)', 'Director Central Legal Services', 'Director Civilian Personnel (DCP)', 'Director General Defence Commercial - Director Corporate Commercial', 'Director General Defence Commercial Head of Intellectual Property Rights', 'Director General Human Resources &amp; Corporate Services', 'Director General Military Aviation Authority', 'Director General Security Policy &amp; Operations', 'Director General of Defence Commercial', 'Director General of Defence Commercial - Director of Commercial Services', 'Director General of Defence Commercial - Head of Commercial Assurance and Governance', 'Director General of Defence Commercial - Head of Secretariat Industrial Policy', 'Director International Acquisition Policy', 'Director International Security Policy', 'Director Judicial Engagement Policy', 'Director Legal Services Germany', 'Director Operational Policy', 'Director Operations Group Military Aviation Authority', 'Director Service Personnel Policy', 'Director Service Prosecution Authority', 'Director Technical Group Military Aviation Authority', 'Director Training Education', 'Director of Media and Communications', 'Expert Medical Advice', 'HEAD OF AIR RESOURCES AND PLANS', 'HEAD OF ARMY RESOURCES AND PLANS', 'HEAD OF BUSINESS STRATEGY AND GOVERNANCE', 'HEAD OF CENTRE RESOURCES AND PLANS', 'HEAD OF DEFENCE BUSINESS IMPROVEMENT', 'HEAD OF DEFENCE ECONOMIC AND STATISTICAL ADVICE MOD HEAD OF PROFESSION FOR ECONOMICS', 'HEAD OF DEFENCE RESOURCES', 'HEAD OF DOCTRINE, AIR AND SPACE', 'HEAD OF EQUIPMENT CAPABILITY SECRETARIAT', 'HEAD OF FINANCIAL MANAGEMENT INFORMATION SYSTEMS', 'HEAD OF FINANCIAL MANAGEMENT POLICY &amp; DEVELOPMENT', 'HEAD OF FINANCIAL MANAGEMENT SHARED SERVICES', 'HEAD OF FUTURES AND MARITIME', 'HEAD OF HEALTH INFORMATION AND SURVEYS. MOD HEAD OF PROFESSION FOR STATISTICS', 'HEAD OF INTERNAL AUDIT', 'HEAD OF LAND', 'HEAD OF NAVY RESOURCES AND PLANS', 'HEAD OF PERSONNEL STATISTICS AND ANALYSIS', 'HEAD OF SCRUTINY AIR/SEA/CIS', 'HEAD OF SCRUTINY LAND/ESTATES/POLICY', 'HEAD OF STRATEGY DEVELOPMENT', 'HEAD OF STRATEGY MANAGEMENT', 'HEAD OF STRATEGY UNIT', 'HEAD STRATEGIC PLANNING', 'Head Arms Control &amp; Proliferation', 'Head Chemical,Biological,Radiological &amp; Nuclear Policy', 'Head DJEP Military Liaison Co-ordination', 'Head International Acquisition Policy', 'Head International Policy &amp; Planning(Civilian)/Head International Policy &amp; Planning(Military)', 'Head Joint Capability', 'Head Judicial Reviews &amp; Defence Inquests Unit', 'Head NATO &amp; Europe Policy', 'Head Operations Group Military Aviation Authority', 'Head Pay and Manning', 'Head Pensions Compensation &amp; Veterans', 'Head Policy &amp; Disclosure Co-ordination', 'Head Public Inquiries', 'Head Reserves Forces &amp; Cadets', 'Head Secretariat', 'Head Service Conditions &amp; Welfare', 'Head Strategy &amp; Programme Management', 'Head Targeting &amp; Information Operations', 'Head Technical Regulations Division Military Aviation Authority', 'Head Training Education Skills &amp; Resettlement', 'Head of Above Water Capability', 'Head of Air &amp; Littoral Manoeuvre Capability', 'Head of British Defence Staff-United States and Defence Attach?.', 'Head of Capability Improvement', 'Head of Command Control &amp; Information Infrastructure Capability', 'Head of Commercial Law Division', 'Head of Corporate Services', 'Head of Deep Theatre Attack Capability', 'Head of Defence Acquistion Reform Programme', 'Head of Defence Intelligence Capability Assessments', 'Head of Defence Intelligence Counter Proliferation', 'Head of Defence Intelligence Development and Support', 'Head of Defence Intelligence Intelligence Capability Strategy and Policy', 'Head of Defence Intelligence Operations', 'Head of Defence Intelligence Strategic Assessments', 'Head of Deterrent and Underwater Capability', 'Head of Equipment Plan', 'Head of Expeditionary Logistic &amp; Support Capability', 'Head of Export Policy Assurance &amp; Assurance', 'Head of General Law Division', 'Head of Ground Manoeuvre Capability', 'Head of Healthcare', 'Head of Intelligence Surveillance Acquisition &amp; Reconnaissance Capability', 'Head of Joint Training Evaluation &amp; Simulation Capability', 'Head of Legislation Division', 'Head of Medical Operations of Plans', 'Head of Medical Strategy and Policy', 'Head of Military Services', 'Head of News', 'Head of Operational Communications', 'Head of Operational International Humanitarian Law Division', 'Head of Personnel &amp; Pensions Law Division', 'Head of Secretariat', 'Head of Secretariat and New Media', 'Head of Special Projects and Chemical Biological Radiological Nuclear Capability', 'Head of Strategy &amp; Programmes', 'Head of Technology', 'Head of Theatre Airspace Capability', 'Head of Unarmed Guarding', "Head of Veteran's Services", 'Head of the Top Office Group Board Secretariat', 'Inspector General', 'Medical Director', 'Military Attach?', 'Minister (Defence Materiel)', 'Naval Attach?', 'Operations Directorate - Head Afghanistan Policy', 'Operations Directorate - Head Counter Terrorism &amp; UK Operations', 'Operations Directorate - Head Counter Terrorism &amp; UK Policy', 'Operations Directorate - Head Overseas Operations', 'Operations Directorate - Head Special Forces &amp; Legal Policy', 'Permanent Undersecretary', 'Principal Staff Officer for the Chief of the Defence Staff', 'Private Secretary to the Secretary of State', 'Royal Centre for Defence Medicine Commandant', 'SG - ACDS (H)', 'SG - Director of Strategy and Change', 'Surgeon General', 'Temporary Director of Public health Liaision', 'Vice Chief of the Defence Staff']</t>
         </is>
@@ -787,10 +821,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E6" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -839,14 +873,20 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>57603</v>
+        <v>16</v>
       </c>
       <c r="U6" t="n">
-        <v>174</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>['1* clinical responsibility for standards of MOs and training', '12', '2nd Permanent Undersecretary', 'A programme and policy team that co-ordinates and oversees acquistion reform activities across the Department.', 'ACDS(IC) is responsible for joint intelligence collection in support of Defence and wider Government requirements; joint and single service intelligence language and photography training; future intelligence collection capability strategy and plans.', 'ACDS(R&amp;C) the senior Reservist in defence, reports to DCDS(PERS and TRG) and is responsible for ensuring the development of coherent Reserve Force capability and policy for Youth and Cadets across the three services.  The role shapes the use of Reserve Forces in the near term as well as developing the strategic direction for reserves through interaction with a wide variety of stakeholders including the Secretary of State, Ministers and single Service Chiefs.  As one of the six 2* officers within DCDS(PERS and TRNG) ACDS (R&amp;C) fulfils a key role in the wider management of Service personnel both regular and reserve.', 'As Assistant Commandant (Air), the senior airman in the Joint Services Command and Staff College, with oversight of the College?s teaching in the air environment.. As Deputy Commandant, the change agent for JSCSC courses and outputs.Responsible for delivering through-life education of RAF officers between Initial Officer Training and the joint Advanced Command and Staff Course.?This consists of the Junior Officer Development Programme and the Intermediate Command and Staff Course (Air).', 'As Assistant Commandant (Land) he is the senior representative of the land component at the JSCSC. ?He is responsible for the provision of land expertise, advice and input (in its broadest sense) in support of the College?s mission and, specifically, for the relevance, accuracy and delivery of land teaching material within all Courses and for land input into doctrine development at the operational level.', 'As one of the two Service Personnel Operating Officers (SPOOs) Director Service Personnel Policy directs the work of the Service Personnel Staff on behalf of DCDS(Pers), and are  responsible for directing the execution of the work of the Service Personnel Staff.  This includes:Chairmanship of the Service Personnel Operating Board; day-to-day prioritisation in response to events; Line management of the Heads of the policy divisions;Facilitation of the policy formulation process, through frequent dialogue with the policy divisions and their counterparts in the Services? personnel staffs; Assurance of the quality and timeliness of work carried out by the Service Personnel Staff.', 'Authorised channel of communication with the news media. Presentational advice to Ministers, officers and officials. Briefing journalists and dealing with media inquiries. Effective rebuttal strategies. Interviews, press conferences, briefings, facilities etc. Ministerial visits and Parliamentary business', "CE-DVA is responsible for the delivery of vetting services to the Defence community (the three Armed Services, MOD civil service, and Defence contractors).   DVA also deliver a range of NSV services on a repayment basis to a growing community of customers across the public sector, with more repayment customers than any other UK NSV organisation.  DVA is the UK's largest government organisation carrying out National Security Vetting (NSV) and the only government organisation whose core business is NSV", 'CE-PPPA is responsible for the delivery of Civilian Shared Services to MOD and wider Government customers in line with agreed outputs and targets', 'CT &amp; SF Policy; NI and GB issues; policy context for planning and conduct of operations; Iraq/Afghanistan/Iran/South America(inc Brazil, Argentina, Falklands, Chile); Stabilisation Unit Director', 'Chief Scientific Advisor', 'Chief of the Defence Staff', 'Commandant DISC is dual-hatted as Director of the Intelligence Corps.? As Comdt, he is responsible for delivering training to tri-Service personnel and Civil Servants through the Defence Schools of Intelligence (Chicksands), Languages (Beaconsfield) and Photography (Cosford) as well as the Royal School of Military Survey (Hermitage).? As Director he is responsible to CGS for setting and monitoring the standards of the Army?s Intelligence Corps and for the provision of intelligence and security advice to the General Staff.', 'Commander Intelligence Collection Group is responsible for the ICG and through its constituent Units (JAGO, JARIC, DGC, JSSO and DHO), delivers global intelligence, information, services and force elements to Defence, including deployed forces and to OGD and international partners, underpinning strategic to tactical level decision-making and action in order to support the achievements of Defence objectives.?', 'Commands the UK?s Staff College, responsible for command and staff training, education and research for all 3 Services throughout officers? careers. Wider responsibilities as a member of Defence Academy Board, and owns direct linkages into MOD Personnel/Training Directorate, academia, international military institutions and front-line organizations.', 'Corporate Information organisation is responsible for key areas of MOD?s corporate management of information, through setting policy and providing certain corporate services for capturing and managing records; making information available internally and externally via the web and information centres; releasing (and withholding) information in line with access legislation; and making use of historical information in support of business and operational needs.', 'Corporate Services', 'D/CBM/J6?s mission is to enable robust command and control now and in the future in order to assure successful prosecution of MOD?s strategic objectives and commitments', 'DCDI leads the Defence Intelligence and Assessments Staff (DIAS) and directs the defence intelligence analytical teams that produce all-source defence intelligence assessments for Ministers, the Chiefs of Staff and senior officials.', 'DCDS (Pers) is the Service personnel Process Owner who directs and coordinates Joint Service Personnel Strategy in order that sufficient Service personnel are recruited, trained, and retained to sustain the Armed Forces.? His principal role is to ensure that the right policies, strategies and legislation are in place to deliver sufficient, capable and motivated people both today and in the future, as well as ensuring that Defence obligations for past service are met.? He reports to the Vice Chief of the Defence Staff.? He attends the Defence Operating Board as required.? Drawing on the advice of the Principal Personnel Officers on the Service Personnel Board, he is responsible for advising the Defence Board and Defence Operating Board on joint Service personnel matters and for the formulation of joint Service personnel policy.? He is the Senior Responsible Owner for the Defence Training Review Transformation programme.', 'DCDS(Cap) acts as an identifiable, responsible and strong Capability Sponsor across the MOD Unified Customer in order to deliver capability that meets the endorsed requirements. Priority is given to current operations (particularly Afghanistan) exploiting both Equipment Plan and Urgent Operational Requirement processes. DCDS(Cap)s other key objective is to generate and implement an affordable, balanced and coherent Equipment and Equipment Support Plan which is realistic and has agility. DCDS(Cap) chairs the Joint Capabilities Board (JCB) that leads the Capability Sponsor', "DCP is responsible for delivering the Corporate HR element of MOD?s Civilian HR structure.  DCP?s principal roles are: (1) Civilian HR Business Partner for MOD - providing Civilian HR input to strategic decisions, taking the lead on the people and cultural aspects of business change and planning MOD?s future manpower and skills requirement; (2) Centre of MOD HR professional expertise ? developing HR policies and best practice (whilst influencing/implementing the wider Government agenda) to meet MOD's business needs; (3) Deploying and Developing Corporate Capability - Management of the SCS/various development schemes, plus an intervention capability to meet urgent operational needs", 'DEVELOPMENT &amp; OPERATION OF THE DEFENCE FINANCIAL MANAGEMENT SYSTEM (DFMS)', "DGDC is the Department's Commercial Process Owner and is responsible for the future direction and development of industrial strategy and the Department's commercial relationships with industry; providing the commercial policy and process framework, functional standards and tools for achieving commercial value for money across defence and providing professional leadership of commercial staff across MOD. DGDC leads for Defence in Government-wide development of commercial policy.", "DGHRCS is the MOD's Civilian Workforce Process Owner (responsible for the development of MOD's corporate Civilian Workforce Strategy and policies to ensure MoD has sufficient, capable and motivated civilian personnel to deliver Defence outputs) and is owner of the People Pay and Pensions Agency.   DGHRCS is responsible for the MOD's Corporate Services Strategy, as part of the wider Whitehall agenda.  DGHRCS is also the MOD's principal adviser on Safety, Security and Information Strategy and policy and a member of the Defence Environment and Safety Board and is owner of the Ministry of Defence Policing and Guarding Agency.", 'DI Capability Assessments (CA) has a diverse team of civilian and military analysts who are qualified engineers, scientists, operators and intelligence analysts with experience in research, development and military matters. The division is structured into six branches that deliver Capability Assessments as follows: 3 environmental (Maritime/Land/Air and Space); 2 thematic (Guided Missiles/Science and Technology), and one functional branch to deliver Special Projects.', 'Defence consultant Adviser in Public Health', 'Delivers effective medical planning support to ops', 'Delivers strategic direction for the end to end health and healthcare system for Defence and med op cap', 'Delivery of global military strategic planning; development of  security co-operation, conflict prevention and security sector reform in the Levant, Sub-Saharan Africa, South and South East Asia; recruit, direct and support worldwide Defence Attach? and Loan Service network', 'Deputy Chief Constable MDP is responsible for the delivery of specialised civilian policing services to the whole of the MOD UK community, both military and civilian units, and also for supporting the Defence Vision (A Force for Good in the World) by contributing to international policing in countries such as Kosovo, Iraq and Afghanistan where the MDP?s principal role is to help develop a model for human rights-based local policing, by training and mentoring local recruits', 'Dir(BM) is a member of the JCB leading on the coordination of battlespace manoeuvre and land environment issues, which provides strategic direction to the coherent delivery of a balanced and affordable Equipment and Support programme.? Dir(BM) is the Senior Responsible Owner (SRO) for the Urgent Operational Requirements process and for elements of Counter Improvised Explosives Device capability.? Dir(BM) represents the Capability Sponsor on the Army Board as the Master General of Ordnance.', 'Dir(IS) is a member of the JCB leading on the coordination of Information Superiority and air environment issues, which provides strategic direction to the coherent delivery of a balanced and affordable Equipment and Support programme.? Dir(IS) is the Senior Responsible Owner (SRO) for Defence Information Infrastructure, Operational Information Superiority and Combat Identification.? Dir(IS) represents the Capability Sponsor on the Air Force Board.', 'Dir(PA) is a member of member of the JCB leading on the coordination of Precision Attack and maritime environment issues, which provides strategic direction to the coherent delivery of a balanced and affordable Equipment and Support programme.? Dir(PA) is the Senior Responsible Owner (SRO) for Carrier Strike (CS) and is the JCB member for Complex Weapons (CW) and Testing and Evaluation (T&amp;E).? Dir(PA) represents the Capability Sponsor on the Navy Board as the Controller of the Navy.', 'Direction and conduct of current and future operations at the strategic level by providing advice and coordination of MOD Targeting, Information Operations (IO), Computer Network Operations (CNO) and Special Capability efforts, policy and capability development.', 'Director Business Resilience (DBR) is the Process Owner for Security and Business Continuity and supports 2nd PUS as Process Owner for Health, Safety, Environmental Protection and Sustainable Development. DBR is responsible for setting policy and standards for MOD in these areas and monitoring their implementation and risk management.  Key areas of policy, audit and assurance activity include: Security (including Physical, Defence Policing, Personnel, Industrial, Scientific &amp; Technical, Information and IT system accreditation); Business Continuity; Safety, (including Health Physics and Occupational Health); Sustainable Development and Environment. DBR also manages all aspects of common law compensation claims made against the Department.', 'Director Equipment Resources is a member of the JCB and effectively finance director of the Capability Sponsor organisation, responsible for the equipment planning process, secretariat advice to Ministers and liaision with OGDS (especially HM Treasury) on equipment capability issues, the MOD\'s contribution to export licensing process and its relationship with UKTI on defence export, and "assured capability" policy. He is also SRO for the future strategic deterrent programme.', 'Director Operations Group is responsible for the regulation and assurance of Defence Aviation flight operations and air traffic management.  He publishes and keeps current the associated Military Aviation Regulatory Document Set.  He contributes to the MAA assurance programme, assessing regulatory compliance through audit and inspection.  He ensures such work is informed by surveillance activities including, inter alia, monitoring and analysis of Defence Air Safety reporting and consideration of 1st and 2nd party assurance activity.  Assurance activity informs provision of advice and guidance to the regulated community and the issue of formal MAA approvals to undertake authorised aviation activity.', 'Director of Operations. Joint responsibility (with DG Sec Pol for delivering strategy and planning for operations, directs and conducts operations at the strategic level)', 'ECONOMIC ADVICE, APPRAISAL AND EVALUATION', 'Finance', 'GENERAL ECONOMIC ADVICE, APPRAISAL AND EVALUATION, PRICE INDICES, PERSONNEL STATS, SURVEYS, HEALTH AND WELFARE OF DEFENCE STAFF AND VETERANS STATISTICS', 'HEALTH STATS', 'Head Operations Group is the Deputy of Director Operations Group, responsible for the regulation and assurance of Defence Aviation flight operations and air traffic management.  He leads Operations Group planning and execution of assurance activity, assessing regulatory compliance through audit and inspection.  He ensures such work is informed by surveillance activities including, inter alia, monitoring and analysis of Defence Air Safety reporting and consideration of 1st and 2nd party assurance activity.  Assurance activity informs provision of advice and guidance to the regulated community and the issue of formal MAA approvals to undertake authorised aviation activity.', 'Head RF&amp;C is responsible for the delivery of a coherent Reserve Force capability to Defence through development of appropriate policy and guidance in conjunction with the single Services. RF&amp;C assures the optimal use of Reservists on operations through efficient and effective mobilisation and call out orders.  Additionally the role ensures that the Reserve Forces will continue to provide capability in the future through a coherent approach, post-SDSR, whilst ensuring the intent of the Strategic Review of Reserves is maintained.  Hd RF&amp;C delivers the MoD aspects of the National Citizen Service / Big Society Initiative through the Youth and Cadets branch within the division.  This requires considerable interaction with wider areas of government as well as with the single Services.', 'Head of DBR-Common Law Claims &amp; Policy (DBR-CLC&amp;P) is primarily responsible for processing common law, non-contractual, compensation claims against and on behalf of the MOD at home and overseas emanating from Employers Liability (Service and Civilian), Public Liability, Low Flying military aircraft, Maritime and Clinical Negligence. DBR-CLC&amp;P also has responsibility for providing claims policy advice to Ministers and senior officials; handling claims against foreign forces based in the UK in accordance with NATO SOFA; providing advice on insurance and indemnities, and as Role Owner for Area Claims Officers in operational theatres.  The annual claims budget is approx ?100M.', 'Head of DCP-Corporate Capability is responsible for the management of the Senior Civil Service (including:  SCS recruitment, promotion assessment, grade management and SCS pay issues); leading on Talent Management and succession planning (including:  management of the Fast Stream, MIDIT and DESG development programmes, and engagement with the Senior Leadership Council/Cabinet Office Talent Management group and Civil Service Development Group);  and providing an intervention capability to meet urgent operational needs', 'Head of DCP-Employment Framework is responsible for: Civilian HR policy relating to conditions of service for all civilian employees - UK &amp; overseas ? (including, civilian pay and reward, performance management, leave &amp; working patterns, recruitment, transfers, pensions, health, Employee Relations, welfare and conduct); coordination of work with TSol and CLS in connection with Employment Tribunal and other employment related Litigation; and oversight of the various instruments used to manage civilian training within the Department.', "Head of Defence Intelligence Operations is responsible for the coordination of intelligence support to MoD decision-making for current and planned operations, and is DI's primary link to MoD, OGDs and PJHQ for operational issues.", 'Head of Defence Intelligence Strategic Assessments is responsible for the provision of intelligence assessments on military and political issues, strategic warning and other developments in regions of interest world-wide.', 'Head of Defence Security (DBR-DefSY) is responsible for developing, promulgating and monitoring the Department?s protective security policy and standards; advising Ministers and senior officials on the political, presentational and legal aspects of protective security policy; supporting the Director Business Resilience as Security Process Owner and in providing assurance to the DAC that security risks are being effectively addressed or managed.  Responsibilities cover personnel security (including vetting); information security (including leak investigations); policing policy &amp; physical security (including guarding); nuclear security &amp; safety (including nuclear accident response); and technical and international security issues (including the security relationship with industry).', 'Head of Safety, Sustainable Development &amp; Continuity (DBR-SSD&amp;C) is the policy lead for Safety, Sustainable Development, Environmental Protection and Business Continuity (including pandemic flu policy and planning).  SSD&amp;C provides the secretariat for the Defence Environment and Safety Board (DESB), who provide assurance to the Defence Board and Defence Audit Committee (DAC) that safety, environmental, and sustainability risks are being effectively managed.', 'Head of Unarmed Guarding is responsible for the MOD Guard Service (MGS) whose role is to provide unarmed guarding and access control services to MOD units across the UK. It guards over 200 sites including the MOD HQ in London, the nuclear submarine base at HM Naval Base Clyde, and the RAF stations at Menwith Hill and Fylingdales', "Head of the Private Finance Unit and Commerical Scrutiny teams.  Provide expert advice to and on PFI and PPP  projects   Provide commercial scrutiny and advice on cases coming  before the Department's Investment Approvals Board.", 'Head of the Top Office Group Board Secretariat', 'IMPLEMENTATION OF THE GRIMSTONE REVIEW', 'INDEPENDENT AUDIT AND COUNTER FRAUD SERVICE', 'International acquisition issues within MOD and wider Government &amp; US, FR, the EU (EDA) and NATO; US/UK Defence Trade Treaty; UK-France Higher Level Working Group', 'Lead Defence Academy headquarters. Support the Director General and 4 training and education colleges through coordinated strategy, plans, operations, communication and resource. Coordinate external Academy relations with overseas, OGD and wider academia. As needed, deputise for Director General.', 'MOD Legal Advisor', "MOD's principal adviser on defence contribution to HMG security policy and shaping international relations", 'MoD principal adviser on defence intelligence issues. Process owner for defence intelligence and Senior Responsible Owner for the Defence Intelligence Modernisation Programme.', 'No longer in post', 'One of two Service Personnel Operating Officers (SPOO). ACDS(Pers) also has the role of Defence Services Secretary (DS Sec). The Honours and Ceremonial Division supports ACDS(Pers) in both roles. The Division has a wide portfolio focused on policy for medals and commemorations; and Royal Household business. DS Sec is a member of the Royal Household. DS Sec also manages tri-Service appointments and Senior Officer remuneration in support of CDS. The DS Sec and the Royal Household Team, support the Queen as Head of the Armed Forces and ensures effective liaison between the Royal Household and the MOD. The team has responsibility for: military manpower support; submissions; petitions; Royal patronage; and the co-ordination of Royal Visits to the Armed Forces. The Ceremonial Events and Commemorations Team, develops and implements policies and events for national recognition of Armed Forces personnel, including being responsible for tri-Service policy for the national commemoration of anniversaries of significance to the Armed Forces and the MOD, and the delivery of these events.', 'Operational strategy and planning; direction and conduct of operations at the strategic level; maintenance of policy context for planning and conduct of operations. Afghanistan Policy Matters', 'Operational strategy and planning; direction and conduct of operations at the strategic level; maintenance of policy context for planning and conduct of operations. Counter Terrorism Operations', 'Operational strategy and planning; direction and conduct of operations at the strategic level; maintenance of policy context for planning and conduct of operations. Counter Terrorism Policy', 'Operational strategy and planning; direction and conduct of operations at the strategic level; maintenance of policy context for planning and conduct of operations. Overseas Operations matters', 'Operational strategy and planning; direction and conduct of operations at the strategic level; maintenance of policy context for planning and conduct of operations. Special Forces and Legal Issues', 'Operational strategy and planning; direction and conduct of operations at the strategic level; maintenance of policy context for planning and conduct of operations; Defence Crisis Management Organisation process;Joint Capability; Middle East/Central America/South America (inc Peru, Colombia, Ecuador, Venezuela)', 'POLICY RELATING TO FINANCE SKILLS AND FINANCE ISSUES INCLUDING: REGULARITY AND PROPRIETY, INCOME GENERATION, EXTERNAL ASSISTANCE, ACCOUNTING, TAX AND DUTY.  MANAGEMENT OF A PROGRAMME OF IMPROVEMENTS TO DEFENCE FINANCIAL MANAGEMENT SYSTEMS.  MANAGEMENT OF THE CORPORATE SERVICES SYSTEM CONVERGENCE PROGRAMME.', 'PRODUCTION OF THE MOD FINANCIAL ACCOUNTS AND THE WHOLE OF GOVERNMENT ACCOUNTS.TREASURY MANAGEMENT FOR THE MOD. BILL PAYMENT, DEBT MANAGEMENT AND NON CURRENT ASSET TRANSACTION PROCESSING.', 'Performs the duties of both the Air Attach? and the Assistant Defence Attach? in Washington. Provides Her Majesty?s Ambassador and the Defence Attach? with specialist advice on all air, space and cyberspace power matters. Responsibilities include playing a key role in fostering close engagement with the air arms of each of the US Forces, in particular their air, space and cyberspace related elements. Ensuring maximum interoperability between the UK and US Armed Forces, so that when the UK undertakes any form of military operation with the US we can operate together efficiently, effectively and with trust.', 'Permanent Undersecretary', 'Policy advice directed at promoting the UK?s security interests through NATO and the EU and with European partners.', 'Policy lead for countering all aspects of the threat posed by CBRN weapons of mass destruction (WMD)', 'Policy on judicial and external scrutiny of MOD business, Judicial Reviews and inquests', 'Policy on judicial and external scrutiny of MOD business, Military Liaison', 'Policy on judicial and external scrutiny of MOD business, Policy &amp; Disclosure', 'Policy on judicial and external scrutiny of MOD business, including Iraq and other public enquiries, inquests and significant claims against the department.', 'Policy on judicial and external scrutiny of MOD business, public enquiries', 'Principal Staff Officer for the Chief of the Defence Staff', 'Private Secretary to the Secretary of State', 'Produce Defence Operational Lessons and conduct Audit of Defence capability', 'Provide advice on all aspects of counter-proliferation, disarmament and arms control, both policy and implementation', "Provide advice on the application of Intellectual Prpoerty within high-complexity, high-technology defence contracts to ensure MoD can procure, maintain, and support its equipment world-wide efficiently and effectievly.  Filing of Patents to protect and exploit the results of MoD/MoD funded Research adn Development.  Filing and prosecution of Trademarks to protect MoD's image.  Presecution of any infrimgments against moD patents, Trademarks or Designs.  Defence of any allegations that moD has infringed the same.", 'Provide secretariat and policy support for Industrial Poicy issues. Dept lead on Defence Industrial Strategy (DIS) and associated policy, working closely with key stakeholders across MOD, Industry and Whitehall.', 'Provide situational awareness to DMC on all operational issues. Identify threats risks and opportunities to communicating current operations and develop and manage communications plans to address them. Develop and co-ordinate delivery of timely and effective comms plans. \nStrategic Marketing ? Provide expert communications input to comms planning and deliver tri-service documentaries, features, events and publications. PR (Navy) ? Promote RN reputation within Defence Communications. PR (Army) ? Promote Army reputation within Defence Communications. PR (RAF) ? Promote RAF reputation within Defence Communications. DMOC ? Develop Defence operational comms capability and deliver operational communications effectively.', 'Provide strategic advice and lead/implement/review major change projects', 'Provide timely and accurate advice to SG on Dept of State matters.  Deliver effective corporate comms', 'Provides a range of professional services to the Department and Commercial function.  Includes: Development and maintenace of Commercial function strategy and policy; function governance; function communications; Strategic Workforce planning; Training policy and  Graduate Recruitment scheme; Intellectual Property and copyright expertise and policy.  Also interfaces with industry on range of commercial policy issues.  Leading, on behalf of Government, the transposition of the EU Defence and Security Directive into national law.', 'Provision of advice to DCDS(Capability) on all aspects of research, new and emerging technological threats to the UK, and policy, capability and collaboration matters affected by science and technology.', 'Provision of communications support to Ministers &amp; DMB Members. Production of Communication Plans. Management of New Media. Management and Production of Policy for Media Operations. Delivery of Defence and Services PR. Delivery of Defence Internal Communication. Delivery of Communication Policy across Defence. Delivery of Media Training across defence.', 'RESPONSIBLE FOR SDSR, COMPREHENSIVE SPENDING REVIEW AND DEFENCE REFORM PREPARATION AND IMPLEMENTATION. PLANNING ROUND, IN YEAR MANAGEMENT, PERFORMANCE MANAGEMENT, ANNUAL REPORT &amp; ACCOUNTS, CHANGE PORTFOLIO,', 'Responsible for Delivering the Defence Information Vision through MODIS and the Implementation Plan, whilst encouraging Defence to fully exploit its information with robust policy, guidance and information innovation that will realise value for money', 'Responsible for Post Graduate training delivery and accreditation of clinicians', 'Responsible for delivery of MOD?s nuclear warhead and propulsion research programmes, including specific responsibilities as Senior Responsible Owner and central customer for the Nuclear Warhead Capability Sustainment Programme. Is the Departmental authority and custodian, on behalf of MOD Chief Scientific Adviser, of the 1958 UK/US Mutual Defence Agreement and other international nuclear Science &amp; Technology relationships. Has responsibility for development of technical programmes to deal with: emerging Chemical Biological Radiological Nuclear (CBRN) threats; defeating chemical and biological agents, and, all aspects of technical support to CBRN counter-terrorism. Provides technical advice to Ministers/senior officials on strategic Missile Defence (MD), including running of research and assessment programme under the management of UK MD Centre to understand the implications of US MD systems for the UK.', 'Responsible for improving the effectiveness, efficiency and safety of Defence individual training and education and directs the Defence Training Rationalisation programme.', 'Responsible for management and direction of a civilian and military staff organized as a Defence Policy Team and a Nuclear Strategic Deterrent and Chemical Biological and Radiological Defence (NSD &amp; CBRD) Team. The Defence Policy Team promotes cooperation and dialogue with the\nUS defence community on strategic defence and national security issues and supports policy work on current military operations issues. The NSD &amp; CBRD Team supports US/UK collaboration on nuclear deterrence; weapon stockpile reduction, testing and compliance and threat reduction; as well as, collaboration on chemical, biological, radiological,nuclear defence; and dialogue on ballistic missile defence.', 'Responsible for military pay, allowances and expenses, the MOD Medal Office and the Joint Casualty and Compassionate Centre.  The Department provide military personnel support processes, enabled through JPA, the Veterans Compensation and Payments System and the War Pensions Computer System.  They provide the management and future development of IT and processes in support of serving military personnel, Reserves and Veterans in line with evolving policy.', 'Responsible for patient care pathway in the Defence Medical Group, particularly Role 4', 'Responsible for pay, charges, allowances, and strategic manning policy and projects for all ranks. The Pay and Manning Division works in a completely integrated way with the single Service Pay Colonels who are colocated with the Division in Head Office. In practice, this means jointly agreed work-plans (through SPB and SPOB) and allocation of lead Service and Centre tasks for the generation, wherever possible, of agreed personnel solutions.', 'Responsible for providing change management and business support to the JCB and champion Through Life Capability Management(TLCM)/Acquisition Reform and innovation to deliver better solutions for defence.', 'Responsible for the conduct of the equipment planning cycle and for producing asn Equipment and Support Plan (ESP) that is balanced, affordable and coherent with the rest of the Defence Programme; as well as the policy and management of the Urgent Operational Requirem,ents process in concert with Sec (Equipment Capability).', 'Responsible for the delivery of Defence-wide capability solutions to the JCB related to the ability to command, inform and amange the battle</t>
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>57601</v>
+      </c>
+      <c r="W6" t="n">
+        <v>173</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>['1* clinical responsibility for standards of MOs and training', '2nd Permanent Undersecretary', 'A programme and policy team that co-ordinates and oversees acquistion reform activities across the Department.', 'ACDS(IC) is responsible for joint intelligence collection in support of Defence and wider Government requirements; joint and single service intelligence language and photography training; future intelligence collection capability strategy and plans.', 'ACDS(R&amp;C) the senior Reservist in defence, reports to DCDS(PERS and TRG) and is responsible for ensuring the development of coherent Reserve Force capability and policy for Youth and Cadets across the three services.  The role shapes the use of Reserve Forces in the near term as well as developing the strategic direction for reserves through interaction with a wide variety of stakeholders including the Secretary of State, Ministers and single Service Chiefs.  As one of the six 2* officers within DCDS(PERS and TRNG) ACDS (R&amp;C) fulfils a key role in the wider management of Service personnel both regular and reserve.', 'As Assistant Commandant (Air), the senior airman in the Joint Services Command and Staff College, with oversight of the College?s teaching in the air environment.. As Deputy Commandant, the change agent for JSCSC courses and outputs.Responsible for delivering through-life education of RAF officers between Initial Officer Training and the joint Advanced Command and Staff Course.?This consists of the Junior Officer Development Programme and the Intermediate Command and Staff Course (Air).', 'As Assistant Commandant (Land) he is the senior representative of the land component at the JSCSC. ?He is responsible for the provision of land expertise, advice and input (in its broadest sense) in support of the College?s mission and, specifically, for the relevance, accuracy and delivery of land teaching material within all Courses and for land input into doctrine development at the operational level.', 'As one of the two Service Personnel Operating Officers (SPOOs) Director Service Personnel Policy directs the work of the Service Personnel Staff on behalf of DCDS(Pers), and are  responsible for directing the execution of the work of the Service Personnel Staff.  This includes:Chairmanship of the Service Personnel Operating Board; day-to-day prioritisation in response to events; Line management of the Heads of the policy divisions;Facilitation of the policy formulation process, through frequent dialogue with the policy divisions and their counterparts in the Services? personnel staffs; Assurance of the quality and timeliness of work carried out by the Service Personnel Staff.', 'Authorised channel of communication with the news media. Presentational advice to Ministers, officers and officials. Briefing journalists and dealing with media inquiries. Effective rebuttal strategies. Interviews, press conferences, briefings, facilities etc. Ministerial visits and Parliamentary business', "CE-DVA is responsible for the delivery of vetting services to the Defence community (the three Armed Services, MOD civil service, and Defence contractors).   DVA also deliver a range of NSV services on a repayment basis to a growing community of customers across the public sector, with more repayment customers than any other UK NSV organisation.  DVA is the UK's largest government organisation carrying out National Security Vetting (NSV) and the only government organisation whose core business is NSV", 'CE-PPPA is responsible for the delivery of Civilian Shared Services to MOD and wider Government customers in line with agreed outputs and targets', 'CT &amp; SF Policy; NI and GB issues; policy context for planning and conduct of operations; Iraq/Afghanistan/Iran/South America(inc Brazil, Argentina, Falklands, Chile); Stabilisation Unit Director', 'Chief Scientific Advisor', 'Chief of the Defence Staff', 'Commandant DISC is dual-hatted as Director of the Intelligence Corps.? As Comdt, he is responsible for delivering training to tri-Service personnel and Civil Servants through the Defence Schools of Intelligence (Chicksands), Languages (Beaconsfield) and Photography (Cosford) as well as the Royal School of Military Survey (Hermitage).? As Director he is responsible to CGS for setting and monitoring the standards of the Army?s Intelligence Corps and for the provision of intelligence and security advice to the General Staff.', 'Commander Intelligence Collection Group is responsible for the ICG and through its constituent Units (JAGO, JARIC, DGC, JSSO and DHO), delivers global intelligence, information, services and force elements to Defence, including deployed forces and to OGD and international partners, underpinning strategic to tactical level decision-making and action in order to support the achievements of Defence objectives.?', 'Commands the UK?s Staff College, responsible for command and staff training, education and research for all 3 Services throughout officers? careers. Wider responsibilities as a member of Defence Academy Board, and owns direct linkages into MOD Personnel/Training Directorate, academia, international military institutions and front-line organizations.', 'Corporate Information organisation is responsible for key areas of MOD?s corporate management of information, through setting policy and providing certain corporate services for capturing and managing records; making information available internally and externally via the web and information centres; releasing (and withholding) information in line with access legislation; and making use of historical information in support of business and operational needs.', 'Corporate Services', 'D/CBM/J6?s mission is to enable robust command and control now and in the future in order to assure successful prosecution of MOD?s strategic objectives and commitments', 'DCDI leads the Defence Intelligence and Assessments Staff (DIAS) and directs the defence intelligence analytical teams that produce all-source defence intelligence assessments for Ministers, the Chiefs of Staff and senior officials.', 'DCDS (Pers) is the Service personnel Process Owner who directs and coordinates Joint Service Personnel Strategy in order that sufficient Service personnel are recruited, trained, and retained to sustain the Armed Forces.? His principal role is to ensure that the right policies, strategies and legislation are in place to deliver sufficient, capable and motivated people both today and in the future, as well as ensuring that Defence obligations for past service are met.? He reports to the Vice Chief of the Defence Staff.? He attends the Defence Operating Board as required.? Drawing on the advice of the Principal Personnel Officers on the Service Personnel Board, he is responsible for advising the Defence Board and Defence Operating Board on joint Service personnel matters and for the formulation of joint Service personnel policy.? He is the Senior Responsible Owner for the Defence Training Review Transformation programme.', 'DCDS(Cap) acts as an identifiable, responsible and strong Capability Sponsor across the MOD Unified Customer in order to deliver capability that meets the endorsed requirements. Priority is given to current operations (particularly Afghanistan) exploiting both Equipment Plan and Urgent Operational Requirement processes. DCDS(Cap)s other key objective is to generate and implement an affordable, balanced and coherent Equipment and Equipment Support Plan which is realistic and has agility. DCDS(Cap) chairs the Joint Capabilities Board (JCB) that leads the Capability Sponsor', "DCP is responsible for delivering the Corporate HR element of MOD?s Civilian HR structure.  DCP?s principal roles are: (1) Civilian HR Business Partner for MOD - providing Civilian HR input to strategic decisions, taking the lead on the people and cultural aspects of business change and planning MOD?s future manpower and skills requirement; (2) Centre of MOD HR professional expertise ? developing HR policies and best practice (whilst influencing/implementing the wider Government agenda) to meet MOD's business needs; (3) Deploying and Developing Corporate Capability - Management of the SCS/various development schemes, plus an intervention capability to meet urgent operational needs", 'DEVELOPMENT &amp; OPERATION OF THE DEFENCE FINANCIAL MANAGEMENT SYSTEM (DFMS)', "DGDC is the Department's Commercial Process Owner and is responsible for the future direction and development of industrial strategy and the Department's commercial relationships with industry; providing the commercial policy and process framework, functional standards and tools for achieving commercial value for money across defence and providing professional leadership of commercial staff across MOD. DGDC leads for Defence in Government-wide development of commercial policy.", "DGHRCS is the MOD's Civilian Workforce Process Owner (responsible for the development of MOD's corporate Civilian Workforce Strategy and policies to ensure MoD has sufficient, capable and motivated civilian personnel to deliver Defence outputs) and is owner of the People Pay and Pensions Agency.   DGHRCS is responsible for the MOD's Corporate Services Strategy, as part of the wider Whitehall agenda.  DGHRCS is also the MOD's principal adviser on Safety, Security and Information Strategy and policy and a member of the Defence Environment and Safety Board and is owner of the Ministry of Defence Policing and Guarding Agency.", 'DI Capability Assessments (CA) has a diverse team of civilian and military analysts who are qualified engineers, scientists, operators and intelligence analysts with experience in research, development and military matters. The division is structured into six branches that deliver Capability Assessments as follows: 3 environmental (Maritime/Land/Air and Space); 2 thematic (Guided Missiles/Science and Technology), and one functional branch to deliver Special Projects.', 'Defence consultant Adviser in Public Health', 'Delivers effective medical planning support to ops', 'Delivers strategic direction for the end to end health and healthcare system for Defence and med op cap', 'Delivery of global military strategic planning; development of  security co-operation, conflict prevention and security sector reform in the Levant, Sub-Saharan Africa, South and South East Asia; recruit, direct and support worldwide Defence Attach? and Loan Service network', 'Deputy Chief Constable MDP is responsible for the delivery of specialised civilian policing services to the whole of the MOD UK community, both military and civilian units, and also for supporting the Defence Vision (A Force for Good in the World) by contributing to international policing in countries such as Kosovo, Iraq and Afghanistan where the MDP?s principal role is to help develop a model for human rights-based local policing, by training and mentoring local recruits', 'Dir(BM) is a member of the JCB leading on the coordination of battlespace manoeuvre and land environment issues, which provides strategic direction to the coherent delivery of a balanced and affordable Equipment and Support programme.? Dir(BM) is the Senior Responsible Owner (SRO) for the Urgent Operational Requirements process and for elements of Counter Improvised Explosives Device capability.? Dir(BM) represents the Capability Sponsor on the Army Board as the Master General of Ordnance.', 'Dir(IS) is a member of the JCB leading on the coordination of Information Superiority and air environment issues, which provides strategic direction to the coherent delivery of a balanced and affordable Equipment and Support programme.? Dir(IS) is the Senior Responsible Owner (SRO) for Defence Information Infrastructure, Operational Information Superiority and Combat Identification.? Dir(IS) represents the Capability Sponsor on the Air Force Board.', 'Dir(PA) is a member of member of the JCB leading on the coordination of Precision Attack and maritime environment issues, which provides strategic direction to the coherent delivery of a balanced and affordable Equipment and Support programme.? Dir(PA) is the Senior Responsible Owner (SRO) for Carrier Strike (CS) and is the JCB member for Complex Weapons (CW) and Testing and Evaluation (T&amp;E).? Dir(PA) represents the Capability Sponsor on the Navy Board as the Controller of the Navy.', 'Direction and conduct of current and future operations at the strategic level by providing advice and coordination of MOD Targeting, Information Operations (IO), Computer Network Operations (CNO) and Special Capability efforts, policy and capability development.', 'Director Business Resilience (DBR) is the Process Owner for Security and Business Continuity and supports 2nd PUS as Process Owner for Health, Safety, Environmental Protection and Sustainable Development. DBR is responsible for setting policy and standards for MOD in these areas and monitoring their implementation and risk management.  Key areas of policy, audit and assurance activity include: Security (including Physical, Defence Policing, Personnel, Industrial, Scientific &amp; Technical, Information and IT system accreditation); Business Continuity; Safety, (including Health Physics and Occupational Health); Sustainable Development and Environment. DBR also manages all aspects of common law compensation claims made against the Department.', 'Director Equipment Resources is a member of the JCB and effectively finance director of the Capability Sponsor organisation, responsible for the equipment planning process, secretariat advice to Ministers and liaision with OGDS (especially HM Treasury) on equipment capability issues, the MOD\'s contribution to export licensing process and its relationship with UKTI on defence export, and "assured capability" policy. He is also SRO for the future strategic deterrent programme.', 'Director Operations Group is responsible for the regulation and assurance of Defence Aviation flight operations and air traffic management.  He publishes and keeps current the associated Military Aviation Regulatory Document Set.  He contributes to the MAA assurance programme, assessing regulatory compliance through audit and inspection.  He ensures such work is informed by surveillance activities including, inter alia, monitoring and analysis of Defence Air Safety reporting and consideration of 1st and 2nd party assurance activity.  Assurance activity informs provision of advice and guidance to the regulated community and the issue of formal MAA approvals to undertake authorised aviation activity.', 'Director of Operations. Joint responsibility (with DG Sec Pol for delivering strategy and planning for operations, directs and conducts operations at the strategic level)', 'ECONOMIC ADVICE, APPRAISAL AND EVALUATION', 'Finance', 'GENERAL ECONOMIC ADVICE, APPRAISAL AND EVALUATION, PRICE INDICES, PERSONNEL STATS, SURVEYS, HEALTH AND WELFARE OF DEFENCE STAFF AND VETERANS STATISTICS', 'HEALTH STATS', 'Head Operations Group is the Deputy of Director Operations Group, responsible for the regulation and assurance of Defence Aviation flight operations and air traffic management.  He leads Operations Group planning and execution of assurance activity, assessing regulatory compliance through audit and inspection.  He ensures such work is informed by surveillance activities including, inter alia, monitoring and analysis of Defence Air Safety reporting and consideration of 1st and 2nd party assurance activity.  Assurance activity informs provision of advice and guidance to the regulated community and the issue of formal MAA approvals to undertake authorised aviation activity.', 'Head RF&amp;C is responsible for the delivery of a coherent Reserve Force capability to Defence through development of appropriate policy and guidance in conjunction with the single Services. RF&amp;C assures the optimal use of Reservists on operations through efficient and effective mobilisation and call out orders.  Additionally the role ensures that the Reserve Forces will continue to provide capability in the future through a coherent approach, post-SDSR, whilst ensuring the intent of the Strategic Review of Reserves is maintained.  Hd RF&amp;C delivers the MoD aspects of the National Citizen Service / Big Society Initiative through the Youth and Cadets branch within the division.  This requires considerable interaction with wider areas of government as well as with the single Services.', 'Head of DBR-Common Law Claims &amp; Policy (DBR-CLC&amp;P) is primarily responsible for processing common law, non-contractual, compensation claims against and on behalf of the MOD at home and overseas emanating from Employers Liability (Service and Civilian), Public Liability, Low Flying military aircraft, Maritime and Clinical Negligence. DBR-CLC&amp;P also has responsibility for providing claims policy advice to Ministers and senior officials; handling claims against foreign forces based in the UK in accordance with NATO SOFA; providing advice on insurance and indemnities, and as Role Owner for Area Claims Officers in operational theatres.  The annual claims budget is approx ?100M.', 'Head of DCP-Corporate Capability is responsible for the management of the Senior Civil Service (including:  SCS recruitment, promotion assessment, grade management and SCS pay issues); leading on Talent Management and succession planning (including:  management of the Fast Stream, MIDIT and DESG development programmes, and engagement with the Senior Leadership Council/Cabinet Office Talent Management group and Civil Service Development Group);  and providing an intervention capability to meet urgent operational needs', 'Head of DCP-Employment Framework is responsible for: Civilian HR policy relating to conditions of service for all civilian employees - UK &amp; overseas ? (including, civilian pay and reward, performance management, leave &amp; working patterns, recruitment, transfers, pensions, health, Employee Relations, welfare and conduct); coordination of work with TSol and CLS in connection with Employment Tribunal and other employment related Litigation; and oversight of the various instruments used to manage civilian training within the Department.', "Head of Defence Intelligence Operations is responsible for the coordination of intelligence support to MoD decision-making for current and planned operations, and is DI's primary link to MoD, OGDs and PJHQ for operational issues.", 'Head of Defence Intelligence Strategic Assessments is responsible for the provision of intelligence assessments on military and political issues, strategic warning and other developments in regions of interest world-wide.', 'Head of Defence Security (DBR-DefSY) is responsible for developing, promulgating and monitoring the Department?s protective security policy and standards; advising Ministers and senior officials on the political, presentational and legal aspects of protective security policy; supporting the Director Business Resilience as Security Process Owner and in providing assurance to the DAC that security risks are being effectively addressed or managed.  Responsibilities cover personnel security (including vetting); information security (including leak investigations); policing policy &amp; physical security (including guarding); nuclear security &amp; safety (including nuclear accident response); and technical and international security issues (including the security relationship with industry).', 'Head of Safety, Sustainable Development &amp; Continuity (DBR-SSD&amp;C) is the policy lead for Safety, Sustainable Development, Environmental Protection and Business Continuity (including pandemic flu policy and planning).  SSD&amp;C provides the secretariat for the Defence Environment and Safety Board (DESB), who provide assurance to the Defence Board and Defence Audit Committee (DAC) that safety, environmental, and sustainability risks are being effectively managed.', 'Head of Unarmed Guarding is responsible for the MOD Guard Service (MGS) whose role is to provide unarmed guarding and access control services to MOD units across the UK. It guards over 200 sites including the MOD HQ in London, the nuclear submarine base at HM Naval Base Clyde, and the RAF stations at Menwith Hill and Fylingdales', "Head of the Private Finance Unit and Commerical Scrutiny teams.  Provide expert advice to and on PFI and PPP  projects   Provide commercial scrutiny and advice on cases coming  before the Department's Investment Approvals Board.", 'Head of the Top Office Group Board Secretariat', 'IMPLEMENTATION OF THE GRIMSTONE REVIEW', 'INDEPENDENT AUDIT AND COUNTER FRAUD SERVICE', 'International acquisition issues within MOD and wider Government &amp; US, FR, the EU (EDA) and NATO; US/UK Defence Trade Treaty; UK-France Higher Level Working Group', 'Lead Defence Academy headquarters. Support the Director General and 4 training and education colleges through coordinated strategy, plans, operations, communication and resource. Coordinate external Academy relations with overseas, OGD and wider academia. As needed, deputise for Director General.', 'MOD Legal Advisor', "MOD's principal adviser on defence contribution to HMG security policy and shaping international relations", 'MoD principal adviser on defence intelligence issues. Process owner for defence intelligence and Senior Responsible Owner for the Defence Intelligence Modernisation Programme.', 'No longer in post', 'One of two Service Personnel Operating Officers (SPOO). ACDS(Pers) also has the role of Defence Services Secretary (DS Sec). The Honours and Ceremonial Division supports ACDS(Pers) in both roles. The Division has a wide portfolio focused on policy for medals and commemorations; and Royal Household business. DS Sec is a member of the Royal Household. DS Sec also manages tri-Service appointments and Senior Officer remuneration in support of CDS. The DS Sec and the Royal Household Team, support the Queen as Head of the Armed Forces and ensures effective liaison between the Royal Household and the MOD. The team has responsibility for: military manpower support; submissions; petitions; Royal patronage; and the co-ordination of Royal Visits to the Armed Forces. The Ceremonial Events and Commemorations Team, develops and implements policies and events for national recognition of Armed Forces personnel, including being responsible for tri-Service policy for the national commemoration of anniversaries of significance to the Armed Forces and the MOD, and the delivery of these events.', 'Operational strategy and planning; direction and conduct of operations at the strategic level; maintenance of policy context for planning and conduct of operations. Afghanistan Policy Matters', 'Operational strategy and planning; direction and conduct of operations at the strategic level; maintenance of policy context for planning and conduct of operations. Counter Terrorism Operations', 'Operational strategy and planning; direction and conduct of operations at the strategic level; maintenance of policy context for planning and conduct of operations. Counter Terrorism Policy', 'Operational strategy and planning; direction and conduct of operations at the strategic level; maintenance of policy context for planning and conduct of operations. Overseas Operations matters', 'Operational strategy and planning; direction and conduct of operations at the strategic level; maintenance of policy context for planning and conduct of operations. Special Forces and Legal Issues', 'Operational strategy and planning; direction and conduct of operations at the strategic level; maintenance of policy context for planning and conduct of operations; Defence Crisis Management Organisation process;Joint Capability; Middle East/Central America/South America (inc Peru, Colombia, Ecuador, Venezuela)', 'POLICY RELATING TO FINANCE SKILLS AND FINANCE ISSUES INCLUDING: REGULARITY AND PROPRIETY, INCOME GENERATION, EXTERNAL ASSISTANCE, ACCOUNTING, TAX AND DUTY.  MANAGEMENT OF A PROGRAMME OF IMPROVEMENTS TO DEFENCE FINANCIAL MANAGEMENT SYSTEMS.  MANAGEMENT OF THE CORPORATE SERVICES SYSTEM CONVERGENCE PROGRAMME.', 'PRODUCTION OF THE MOD FINANCIAL ACCOUNTS AND THE WHOLE OF GOVERNMENT ACCOUNTS.TREASURY MANAGEMENT FOR THE MOD. BILL PAYMENT, DEBT MANAGEMENT AND NON CURRENT ASSET TRANSACTION PROCESSING.', 'Performs the duties of both the Air Attach? and the Assistant Defence Attach? in Washington. Provides Her Majesty?s Ambassador and the Defence Attach? with specialist advice on all air, space and cyberspace power matters. Responsibilities include playing a key role in fostering close engagement with the air arms of each of the US Forces, in particular their air, space and cyberspace related elements. Ensuring maximum interoperability between the UK and US Armed Forces, so that when the UK undertakes any form of military operation with the US we can operate together efficiently, effectively and with trust.', 'Permanent Undersecretary', 'Policy advice directed at promoting the UK?s security interests through NATO and the EU and with European partners.', 'Policy lead for countering all aspects of the threat posed by CBRN weapons of mass destruction (WMD)', 'Policy on judicial and external scrutiny of MOD business, Judicial Reviews and inquests', 'Policy on judicial and external scrutiny of MOD business, Military Liaison', 'Policy on judicial and external scrutiny of MOD business, Policy &amp; Disclosure', 'Policy on judicial and external scrutiny of MOD business, including Iraq and other public enquiries, inquests and significant claims against the department.', 'Policy on judicial and external scrutiny of MOD business, public enquiries', 'Principal Staff Officer for the Chief of the Defence Staff', 'Private Secretary to the Secretary of State', 'Produce Defence Operational Lessons and conduct Audit of Defence capability', 'Provide advice on all aspects of counter-proliferation, disarmament and arms control, both policy and implementation', "Provide advice on the application of Intellectual Prpoerty within high-complexity, high-technology defence contracts to ensure MoD can procure, maintain, and support its equipment world-wide efficiently and effectievly.  Filing of Patents to protect and exploit the results of MoD/MoD funded Research adn Development.  Filing and prosecution of Trademarks to protect MoD's image.  Presecution of any infrimgments against moD patents, Trademarks or Designs.  Defence of any allegations that moD has infringed the same.", 'Provide secretariat and policy support for Industrial Poicy issues. Dept lead on Defence Industrial Strategy (DIS) and associated policy, working closely with key stakeholders across MOD, Industry and Whitehall.', 'Provide situational awareness to DMC on all operational issues. Identify threats risks and opportunities to communicating current operations and develop and manage communications plans to address them. Develop and co-ordinate delivery of timely and effective comms plans. \nStrategic Marketing ? Provide expert communications input to comms planning and deliver tri-service documentaries, features, events and publications. PR (Navy) ? Promote RN reputation within Defence Communications. PR (Army) ? Promote Army reputation within Defence Communications. PR (RAF) ? Promote RAF reputation within Defence Communications. DMOC ? Develop Defence operational comms capability and deliver operational communications effectively.', 'Provide strategic advice and lead/implement/review major change projects', 'Provide timely and accurate advice to SG on Dept of State matters.  Deliver effective corporate comms', 'Provides a range of professional services to the Department and Commercial function.  Includes: Development and maintenace of Commercial function strategy and policy; function governance; function communications; Strategic Workforce planning; Training policy and  Graduate Recruitment scheme; Intellectual Property and copyright expertise and policy.  Also interfaces with industry on range of commercial policy issues.  Leading, on behalf of Government, the transposition of the EU Defence and Security Directive into national law.', 'Provision of advice to DCDS(Capability) on all aspects of research, new and emerging technological threats to the UK, and policy, capability and collaboration matters affected by science and technology.', 'Provision of communications support to Ministers &amp; DMB Members. Production of Communication Plans. Management of New Media. Management and Production of Policy for Media Operations. Delivery of Defence and Services PR. Delivery of Defence Internal Communication. Delivery of Communication Policy across Defence. Delivery of Media Training across defence.', 'RESPONSIBLE FOR SDSR, COMPREHENSIVE SPENDING REVIEW AND DEFENCE REFORM PREPARATION AND IMPLEMENTATION. PLANNING ROUND, IN YEAR MANAGEMENT, PERFORMANCE MANAGEMENT, ANNUAL REPORT &amp; ACCOUNTS, CHANGE PORTFOLIO,', 'Responsible for Delivering the Defence Information Vision through MODIS and the Implementation Plan, whilst encouraging Defence to fully exploit its information with robust policy, guidance and information innovation that will realise value for money', 'Responsible for Post Graduate training delivery and accreditation of clinicians', 'Responsible for delivery of MOD?s nuclear warhead and propulsion research programmes, including specific responsibilities as Senior Responsible Owner and central customer for the Nuclear Warhead Capability Sustainment Programme. Is the Departmental authority and custodian, on behalf of MOD Chief Scientific Adviser, of the 1958 UK/US Mutual Defence Agreement and other international nuclear Science &amp; Technology relationships. Has responsibility for development of technical programmes to deal with: emerging Chemical Biological Radiological Nuclear (CBRN) threats; defeating chemical and biological agents, and, all aspects of technical support to CBRN counter-terrorism. Provides technical advice to Ministers/senior officials on strategic Missile Defence (MD), including running of research and assessment programme under the management of UK MD Centre to understand the implications of US MD systems for the UK.', 'Responsible for improving the effectiveness, efficiency and safety of Defence individual training and education and directs the Defence Training Rationalisation programme.', 'Responsible for management and direction of a civilian and military staff organized as a Defence Policy Team and a Nuclear Strategic Deterrent and Chemical Biological and Radiological Defence (NSD &amp; CBRD) Team. The Defence Policy Team promotes cooperation and dialogue with the\nUS defence community on strategic defence and national security issues and supports policy work on current military operations issues. The NSD &amp; CBRD Team supports US/UK collaboration on nuclear deterrence; weapon stockpile reduction, testing and compliance and threat reduction; as well as, collaboration on chemical, biological, radiological,nuclear defence; and dialogue on ballistic missile defence.', 'Responsible for military pay, allowances and expenses, the MOD Medal Office and the Joint Casualty and Compassionate Centre.  The Department provide military personnel support processes, enabled through JPA, the Veterans Compensation and Payments System and the War Pensions Computer System.  They provide the management and future development of IT and processes in support of serving military personnel, Reserves and Veterans in line with evolving policy.', 'Responsible for patient care pathway in the Defence Medical Group, particularly Role 4', 'Responsible for pay, charges, allowances, and strategic manning policy and projects for all ranks. The Pay and Manning Division works in a completely integrated way with the single Service Pay Colonels who are colocated with the Division in Head Office. In practice, this means jointly agreed work-plans (through SPB and SPOB) and allocation of lead Service and Centre tasks for the generation, wherever possible, of agreed personnel solutions.', 'Responsible for providing change management and business support to the JCB and champion Through Life Capability Management(TLCM)/Acquisition Reform and innovation to deliver better solutions for defence.', 'Responsible for the conduct of the equipment planning cycle and for producing asn Equipment and Support Plan (ESP) that is balanced, affordable and coherent with the rest of the Defence Programme; as well as the policy and management of the Urgent Operational Requirem,ents process in concert with Sec (Equipment Capability).', 'Responsible for the delivery of Defence-wide capability solutions to the JCB related to the ability to command, inform and amange the battle and b</t>
         </is>
       </c>
     </row>
@@ -865,10 +905,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -892,7 +932,7 @@
         <v>-1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N7" t="n">
         <v>24</v>
@@ -901,28 +941,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Ministry of Defence</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>208</v>
+      </c>
+      <c r="U7" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>&lt;Unspecified&gt;</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Ministry of Defence</t>
-        </is>
-      </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>3976</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>2</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>['Commander-in-Chief Fleet', 'Ministry of Defence']</t>
         </is>
@@ -943,10 +989,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -970,7 +1016,7 @@
         <v>-1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N8" t="n">
         <v>24</v>
@@ -979,28 +1025,34 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Ministry of Defence</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>208</v>
+      </c>
+      <c r="U8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>&lt;Unspecified&gt;</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Ministry of Defence</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>3976</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>2</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>['Commander-in-Chief Fleet', 'Ministry of Defence']</t>
         </is>
@@ -1021,10 +1073,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E9" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1048,7 +1100,7 @@
         <v>-1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N9" t="n">
         <v>29</v>
@@ -1057,28 +1109,34 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Central Top Level Budget</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>205</v>
+      </c>
+      <c r="U9" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>&lt;Unspecified&gt;</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Central Top Level Budget</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>5007</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>4</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>['Central Top Level Budget', 'Land Forces', 'Permanent Joint HQ', 'Service Prosecution Authority']</t>
         </is>
@@ -1099,10 +1157,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E10" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1147,14 +1205,20 @@
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>714</v>
+        <v>155</v>
       </c>
       <c r="U10" t="n">
-        <v>13</v>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>['020 721 8 2724/0199', '020 7218 1396', '0207 218 1561', '0207 218 2636', '0207 218 3024', '0207 218 5740', '0207 218 6057', '0207 218 7394', '0207 2184799', '0207 807 8213', '02392 702088', '155', '?020 712 8 2724']</t>
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>711</v>
+      </c>
+      <c r="W10" t="n">
+        <v>12</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>['020 721 8 2724/0199', '020 7218 1396', '0207 218 1561', '0207 218 2636', '0207 218 3024', '0207 218 5740', '0207 218 6057', '0207 218 7394', '0207 2184799', '0207 807 8213', '02392 702088', '?020 712 8 2724']</t>
         </is>
       </c>
     </row>
@@ -1173,10 +1237,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E11" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1221,14 +1285,20 @@
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>1207</v>
+        <v>154</v>
       </c>
       <c r="U11" t="n">
-        <v>12</v>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>['154', 'CE@SPVA.MOD.UK', 'CIO-SecPlans@mod.uk', 'CLS-Group-Mailbox-Office@MOD.UK', 'DCDS PERS-DCDS-SHARED MAILBOX', 'DCDS PERS-DTEGPMAILBOX (MULTIUSER)', 'DGStrat-BusMan@mod.uk', 'DMC-BMBusinessManager@mod.uk', 'DRFC-Office (MULTIUSER)', 'DST-BM@mod.uk', 'MAA-EnquiriesMailbox@mod.uk', 'maa-dgmaa@mod.uk']</t>
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1204</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>['CE@SPVA.MOD.UK', 'CIO-SecPlans@mod.uk', 'CLS-Group-Mailbox-Office@MOD.UK', 'DCDS PERS-DCDS-SHARED MAILBOX', 'DCDS PERS-DTEGPMAILBOX (MULTIUSER)', 'DGStrat-BusMan@mod.uk', 'DMC-BMBusinessManager@mod.uk', 'DRFC-Office (MULTIUSER)', 'DST-BM@mod.uk', 'MAA-EnquiriesMailbox@mod.uk', 'maa-dgmaa@mod.uk']</t>
         </is>
       </c>
     </row>
@@ -1247,10 +1317,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E12" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1274,7 +1344,7 @@
         <v>-1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
         <v>88</v>
@@ -1283,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1299,12 +1369,18 @@
         </is>
       </c>
       <c r="T12" t="n">
+        <v>7</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>7361</v>
       </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>81</v>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>['00005654 - 2nd Permanent Under Secretary', '00005654 PERMANANENT UNDER SECRETARY OF STATE', '00100916 CCMDP', '00104016 - 2nd PUS', '00104016 2ndPUS', '00104017 DGHRCS', '00104018 DCP', '00105227 Chief Scientific Advisor', '00105238 DIRECTOR SCRUTINY', '00106000 DIRECTOR GENERAL FINANCE', '00106008 DIRECTOR FINANCIAL MANAGEMENT', '00106029 - CTLB Director', '00107359 DIRECTOR ANALYTICAL SERVICES AND ADVICE', '00111789 DBR', '00135736 - Director Equipment Resources', '00137261 - Director of Media and Communications', '0016039 DIRECTOR (STRATEGY AND RESOURCES)', '00163901 - Director General Defence Commercial', '00179598 DIRECTOR GENERAL STRATEGY', '104016', '104016 2nd PUS', '1047423 - DCDS(Capability)', '105234 Defence Science &amp; Technology Strategic Technologies Director', '105515', '1055224 ASSISTANT CHIEF OF DEFENCE STAFF (STRATEGY AND PLANS)', '1056166 - Deputy Chief Defence Staff (Personnel &amp; Training)', '1056170 - Assistant Chief Defence Staff (Personnel) / Defence Services Secretary', '1056191', '1056191 - VCDS', '1056191 - Vice Chief of the Defence Staff', '1056195 - Director Training Education', '1057629 ASSISTANT CHIEF OF DEFENCE STAFF (DEVELOPMENT, CONCEPTS AND DOCTRINE)', '1058711', '1058719', '106181 - Director Service Personnel Policy', '1062997 - DEFAC-JSCSC HQ COMDT', '1063013 - DEFAC-HQ-DIRECTOR GENERAL', '109463 - DEFAC-HQ-DIRECTOR GENERAL', '1105905 - Director (Precision Attack)', '1107045 - Assistant Chief Defence Staff (Reserves &amp; Cadets)', '116270 - DEFAC-RCDS-COMMANDANT', '126084', '1364692 - Comd JMC - AVM P Evans', '139073', '1431838 - Director (Battlespace Maneouvre)', '1448387 - Chief Executive Service Personnel &amp; Veterans Agency', '154906 - DEFAC-CMT-HQ DIRECTOR', '155792', '155805', '1565824 - Director (Information Superiority)', '1568418 - ACDS (H) - Surg R Adm L  JARVIS', '1596460 - DSC - Maj S Gen Andrews', '1597768 - SG - Surg V Adm P RAFFAELLI', '1608729 - DEFAC-CMT-HQ DIRECTOR', '170956 - DEFAC-RCDS-SDS 3', '179774 - Director Service Prosecution Authority', '185281 Director Tech Group Military Aviation Authority', '191185 Director General Military Aviation Authority', '191191 Director Op Group Military Aviation Authority', '2PUS', '2nd PUS', '5654', 'Assistant Chief of Defence Staff International Security Policy', 'Assistant Chief of Defence Staff Operations', 'Assistant Chief of Defence Staff Operations/Director Operational Policy', 'CIO', 'Commander Second Fleet (Director CJOS COE)', 'Deputy Chief of Defence Staff Operations: Director General Security Policy &amp; Operations', 'Director General Security Policy', 'Director General Security Policy &amp; Operations: Deputy Chief of Defence Staff Operations:', 'Director General Security Policy &amp; Operations:Deputy Chief of Defence Staff Operations:', 'Director International Acquisition Policy', 'Director International Security Policy', 'Director Judicial Engagement Policy', 'Head British Defence Staff - United States', 'Mark Preston - Director Business Resilience', 'MinAF/VCDS', 'Minister (Defence Materiel)', 'VCDS', 'Vice Chief Defence Staff / 2nd Permanent Under Secretary', 'Vice Chief of Defence Staff']</t>
         </is>
@@ -1325,10 +1401,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E13" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1355,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1373,14 +1449,20 @@
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>['209']</t>
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>

--- a/examples/UK OGD/supporting_staff/profile.xlsx
+++ b/examples/UK OGD/supporting_staff/profile.xlsx
@@ -481,39 +481,39 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>209</v>
       </c>
       <c r="E2" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F2" t="n">
-        <v>319620708</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1544061.391304348</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>178009</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>13872124.95127858</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>192435850663885.9</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5654</v>
+        <v>-1</v>
       </c>
       <c r="L2" t="n">
-        <v>200000057</v>
+        <v>-1</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
@@ -565,11 +565,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -645,11 +645,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -729,11 +729,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -813,11 +813,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -897,11 +897,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -960,7 +960,7 @@
         <v>208</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>3976</v>
@@ -981,11 +981,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1044,7 +1044,7 @@
         <v>208</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>3976</v>
@@ -1065,11 +1065,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1128,7 +1128,7 @@
         <v>205</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>5007</v>
@@ -1149,11 +1149,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1229,11 +1229,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1309,11 +1309,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1393,18 +1393,18 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>209</v>
       </c>
       <c r="E13" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1463,6 +1463,82 @@
       <c r="X13" t="inlineStr">
         <is>
           <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>209</v>
+      </c>
+      <c r="E14" t="n">
+        <v>209</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>19</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>207</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>207</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>38</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>['not on junior sheet']</t>
         </is>
       </c>
     </row>
